--- a/TCC-documentos/Cronograma/Cronograma TCC - Parcial.xlsx
+++ b/TCC-documentos/Cronograma/Cronograma TCC - Parcial.xlsx
@@ -26,42 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>10/09 à 16/09</t>
-  </si>
-  <si>
-    <t>17/09 à 23/09</t>
-  </si>
-  <si>
-    <t>24/09 à 30/09</t>
-  </si>
-  <si>
-    <t>01/10 à 07/10</t>
-  </si>
-  <si>
-    <t>08/10 à 14/10</t>
-  </si>
-  <si>
-    <t>15/10 à 21/10</t>
-  </si>
-  <si>
-    <t>22/10 à 28/10</t>
-  </si>
-  <si>
-    <t>29/10 à 04/11</t>
-  </si>
-  <si>
-    <t>05/11 à 11/11</t>
-  </si>
-  <si>
-    <t>12/11 à 18/11</t>
-  </si>
-  <si>
-    <t>19/11 à 25/11</t>
-  </si>
-  <si>
-    <t>26/11 à 02/12</t>
-  </si>
-  <si>
     <t>Criação da página web</t>
   </si>
   <si>
@@ -87,6 +51,42 @@
   </si>
   <si>
     <t>Defesa do TCC</t>
+  </si>
+  <si>
+    <t>10/09 a 16/09</t>
+  </si>
+  <si>
+    <t>17/09 a 23/09</t>
+  </si>
+  <si>
+    <t>24/09 a 30/09</t>
+  </si>
+  <si>
+    <t>01/10 a 07/10</t>
+  </si>
+  <si>
+    <t>08/10 a 14/10</t>
+  </si>
+  <si>
+    <t>15/10 a 21/10</t>
+  </si>
+  <si>
+    <t>22/10 a 28/10</t>
+  </si>
+  <si>
+    <t>29/10 a 04/11</t>
+  </si>
+  <si>
+    <t>05/11 a 11/11</t>
+  </si>
+  <si>
+    <t>12/11 a 18/11</t>
+  </si>
+  <si>
+    <t>19/11 a 25/11</t>
+  </si>
+  <si>
+    <t>26/11 a 02/12</t>
   </si>
 </sst>
 </file>
@@ -419,9 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,85 +430,85 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -524,7 +522,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M9" s="3"/>
     </row>
